--- a/BEX2223NOTTODATE.xlsx
+++ b/BEX2223NOTTODATE.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maki/Desktop/Master Thesis/BEX 2223 Master Thesis Maung Kyaw/IVPToleranceBex2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA432C49-29FE-A14F-B2B6-5201D13BFF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD56419A-ECCD-0142-9275-7CF4676EF493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bex Dyad" sheetId="2" r:id="rId1"/>
     <sheet name="Bex Life history" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Bex Dyad'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Bex Dyad'!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Bex Life history'!$A$1:$AB$869</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -7439,8 +7439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K17"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="K17" sqref="A1:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7622,51 +7622,51 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1149</v>
+        <v>980</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D6" s="1">
-        <v>42328</v>
+        <v>42004</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
-        <v>2178</v>
+      <c r="F6" s="1">
+        <v>43606</v>
       </c>
       <c r="G6" t="s">
         <v>641</v>
       </c>
       <c r="H6" t="s">
-        <v>906</v>
-      </c>
-      <c r="I6" s="1">
-        <v>44880</v>
+        <v>2174</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2174</v>
       </c>
       <c r="J6" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
       <c r="K6" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1347</v>
+        <v>1149</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="C7">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D7" s="1">
-        <v>43029</v>
+        <v>42328</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -7678,16 +7678,16 @@
         <v>641</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>37</v>
+        <v>906</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44880</v>
       </c>
       <c r="J7" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="K7" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -7727,37 +7727,37 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1474</v>
+        <v>1229</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D9" s="1">
-        <v>43413</v>
+        <v>42688</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
-        <v>2178</v>
+      <c r="F9" s="1">
+        <v>44782</v>
       </c>
       <c r="G9" t="s">
         <v>641</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="1">
-        <v>44921</v>
+        <v>2174</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2174</v>
       </c>
       <c r="J9" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
       <c r="K9" t="s">
-        <v>2188</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -7797,22 +7797,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>980</v>
+        <v>1279</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
       <c r="C11">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D11" s="1">
-        <v>42004</v>
+        <v>42982</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="1">
-        <v>43606</v>
+        <v>43781</v>
       </c>
       <c r="G11" t="s">
         <v>641</v>
@@ -7827,27 +7827,27 @@
         <v>2174</v>
       </c>
       <c r="K11" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1229</v>
+        <v>1339</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D12" s="1">
-        <v>42688</v>
+        <v>43027</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1">
-        <v>44782</v>
+        <v>44977</v>
       </c>
       <c r="G12" t="s">
         <v>641</v>
@@ -7862,12 +7862,12 @@
         <v>2174</v>
       </c>
       <c r="K12" t="s">
-        <v>2183</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1279</v>
+        <v>1342</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -7876,13 +7876,13 @@
         <v>2017</v>
       </c>
       <c r="D13" s="1">
-        <v>42982</v>
+        <v>43028</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="1">
-        <v>43781</v>
+        <v>44758</v>
       </c>
       <c r="G13" t="s">
         <v>641</v>
@@ -7897,77 +7897,77 @@
         <v>2174</v>
       </c>
       <c r="K13" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1339</v>
+        <v>1347</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>2017</v>
       </c>
       <c r="D14" s="1">
-        <v>43027</v>
+        <v>43029</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="1">
-        <v>44977</v>
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2178</v>
       </c>
       <c r="G14" t="s">
         <v>641</v>
       </c>
       <c r="H14" t="s">
-        <v>2174</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>2174</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s">
-        <v>2174</v>
+        <v>2177</v>
       </c>
       <c r="K14" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1342</v>
+        <v>1474</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C15">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D15" s="1">
-        <v>43028</v>
+        <v>43413</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="1">
-        <v>44758</v>
+      <c r="F15" t="s">
+        <v>2178</v>
       </c>
       <c r="G15" t="s">
         <v>641</v>
       </c>
       <c r="H15" t="s">
-        <v>2174</v>
-      </c>
-      <c r="I15" t="s">
-        <v>2174</v>
+        <v>37</v>
+      </c>
+      <c r="I15" s="1">
+        <v>44921</v>
       </c>
       <c r="J15" t="s">
-        <v>2174</v>
+        <v>2179</v>
       </c>
       <c r="K15" t="s">
-        <v>2182</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -8056,17 +8056,21 @@
       <c r="D22" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K17">
+      <sortCondition ref="D1:D17"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AB892"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H855" sqref="H855"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8157,7 +8161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8240,7 +8244,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8326,7 +8330,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8412,7 +8416,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8498,7 +8502,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8581,7 +8585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8664,7 +8668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8747,7 +8751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8830,7 +8834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8913,7 +8917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8999,7 +9003,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9085,7 +9089,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9168,7 +9172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9254,7 +9258,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9340,7 +9344,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9426,7 +9430,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9509,7 +9513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9595,7 +9599,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9681,7 +9685,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9767,7 +9771,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9853,7 +9857,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9939,7 +9943,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10025,7 +10029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10111,7 +10115,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10197,7 +10201,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10283,7 +10287,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10366,7 +10370,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10449,7 +10453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10535,7 +10539,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10621,7 +10625,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10707,7 +10711,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10793,7 +10797,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10879,7 +10883,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10965,7 +10969,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11051,7 +11055,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11137,7 +11141,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11223,7 +11227,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11309,7 +11313,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11395,7 +11399,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11481,7 +11485,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11567,7 +11571,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11653,7 +11657,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11739,7 +11743,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11825,7 +11829,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11911,7 +11915,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11997,7 +12001,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -12083,7 +12087,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12166,7 +12170,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12252,7 +12256,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12335,7 +12339,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12421,7 +12425,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12504,7 +12508,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12590,7 +12594,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12676,7 +12680,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -12762,7 +12766,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -12845,7 +12849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -12928,7 +12932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -13011,7 +13015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -13094,7 +13098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -13180,7 +13184,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="61" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -13266,7 +13270,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -13352,7 +13356,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -13438,7 +13442,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -13524,7 +13528,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -13610,7 +13614,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="66" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -13693,7 +13697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -13779,7 +13783,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="68" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -13862,7 +13866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -13945,7 +13949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -14031,7 +14035,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -14114,7 +14118,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -14200,7 +14204,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="73" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -14286,7 +14290,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14372,7 +14376,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14458,7 +14462,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14544,7 +14548,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14630,7 +14634,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="78" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -14716,7 +14720,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -14802,7 +14806,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -14888,7 +14892,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="81" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -14971,7 +14975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -15054,7 +15058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -15137,7 +15141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -15220,7 +15224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -15303,7 +15307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -15389,7 +15393,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -15475,7 +15479,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -15561,7 +15565,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="89" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -15647,7 +15651,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="90" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -15733,7 +15737,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="91" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -15819,7 +15823,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="92" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -15902,7 +15906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -15985,7 +15989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -16071,7 +16075,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="95" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -16157,7 +16161,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="96" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -16243,7 +16247,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="97" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -16329,7 +16333,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="98" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -16415,7 +16419,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -16501,7 +16505,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -16587,7 +16591,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="101" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -16673,7 +16677,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="102" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -16759,7 +16763,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -16845,7 +16849,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="104" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -16931,7 +16935,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="105" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -17017,7 +17021,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="106" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -17103,7 +17107,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="107" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -17189,7 +17193,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -17275,7 +17279,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="109" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -17361,7 +17365,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="110" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -17447,7 +17451,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="111" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -17533,7 +17537,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="112" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -17619,7 +17623,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="113" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -17705,7 +17709,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="114" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -17788,7 +17792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -17874,7 +17878,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="116" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -17957,7 +17961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -18043,7 +18047,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="118" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -18126,7 +18130,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -18212,7 +18216,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="120" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -18298,7 +18302,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="121" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -18384,7 +18388,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="122" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -18467,7 +18471,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -18553,7 +18557,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="124" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -18639,7 +18643,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="125" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -18722,7 +18726,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -18808,7 +18812,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="127" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -18891,7 +18895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -18974,7 +18978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -19060,7 +19064,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="130" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -19146,7 +19150,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="131" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -19229,7 +19233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -19315,7 +19319,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="133" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -19401,7 +19405,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="134" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -19487,7 +19491,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="135" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -19570,7 +19574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -19653,7 +19657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -19739,7 +19743,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="138" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -19825,7 +19829,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="139" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -19911,7 +19915,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="140" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -19997,7 +20001,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="141" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -20083,7 +20087,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="142" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -20169,7 +20173,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="143" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -20255,7 +20259,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="144" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -20338,7 +20342,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -20424,7 +20428,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="146" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -20507,7 +20511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -20593,7 +20597,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="148" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -20679,7 +20683,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="149" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -20765,7 +20769,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -20851,7 +20855,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="151" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -20937,7 +20941,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="152" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -21020,7 +21024,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -21106,7 +21110,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="154" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -21189,7 +21193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -21272,7 +21276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -21355,7 +21359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -21438,7 +21442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -21524,7 +21528,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="159" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -21607,7 +21611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -21690,7 +21694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -21776,7 +21780,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="162" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -21862,7 +21866,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -21945,7 +21949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -22031,7 +22035,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="165" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -22117,7 +22121,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="166" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -22203,7 +22207,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="167" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -22289,7 +22293,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="168" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -22375,7 +22379,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="169" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -22461,7 +22465,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="170" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -22547,7 +22551,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="171" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -22630,7 +22634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -22716,7 +22720,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="173" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -22799,7 +22803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -22885,7 +22889,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="175" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -22971,7 +22975,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="176" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -23057,7 +23061,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="177" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -23143,7 +23147,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="178" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -23229,7 +23233,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="179" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -23315,7 +23319,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="180" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -23401,7 +23405,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="181" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -23487,7 +23491,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="182" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -23573,7 +23577,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="183" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -23659,7 +23663,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="184" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -23745,7 +23749,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="185" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -23831,7 +23835,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="186" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -23917,7 +23921,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="187" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -24000,7 +24004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -24086,7 +24090,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="189" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -24172,7 +24176,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="190" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -24258,7 +24262,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="191" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -24344,7 +24348,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="192" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -24430,7 +24434,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="193" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -24516,7 +24520,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="194" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -24599,7 +24603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -24685,7 +24689,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="196" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -24771,7 +24775,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="197" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -24854,7 +24858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -24937,7 +24941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -25023,7 +25027,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="200" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -25109,7 +25113,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="201" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -25195,7 +25199,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="202" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -25281,7 +25285,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="203" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -25367,7 +25371,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="204" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -25453,7 +25457,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="205" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -25536,7 +25540,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -25619,7 +25623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="207" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -25705,7 +25709,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="208" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -25788,7 +25792,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -25874,7 +25878,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="210" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -25960,7 +25964,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="211" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -26046,7 +26050,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="212" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -26132,7 +26136,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="213" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -26215,7 +26219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -26301,7 +26305,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="215" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -26387,7 +26391,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="216" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -26473,7 +26477,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="217" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -26559,7 +26563,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="218" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -26645,7 +26649,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="219" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -26731,7 +26735,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="220" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -26817,7 +26821,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="221" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -26900,7 +26904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -26983,7 +26987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="223" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -27069,7 +27073,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="224" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -27155,7 +27159,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="225" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -27241,7 +27245,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="226" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -27327,7 +27331,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="227" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -27413,7 +27417,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="228" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
@@ -27496,7 +27500,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -27582,7 +27586,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="230" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -27668,7 +27672,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="231" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>811</v>
       </c>
@@ -27754,7 +27758,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="232" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
@@ -27840,7 +27844,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="233" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -27926,7 +27930,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="234" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -28012,7 +28016,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="235" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -28098,7 +28102,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="236" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -28184,7 +28188,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="237" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -28270,7 +28274,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="238" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -28353,7 +28357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="239" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -28439,7 +28443,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="240" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
@@ -28522,7 +28526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -28608,7 +28612,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="242" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -28691,7 +28695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -28777,7 +28781,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="244" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
@@ -28863,7 +28867,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="245" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
@@ -28946,7 +28950,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
@@ -29032,7 +29036,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="247" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
@@ -29118,7 +29122,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="248" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -29204,7 +29208,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="249" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
@@ -29290,7 +29294,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="250" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
@@ -29373,7 +29377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="251" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
@@ -29459,7 +29463,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="252" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
@@ -29545,7 +29549,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="253" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
@@ -29631,7 +29635,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="254" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
@@ -29717,7 +29721,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="255" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
@@ -29800,7 +29804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="256" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
@@ -29883,7 +29887,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="257" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
@@ -29969,7 +29973,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="258" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
@@ -30055,7 +30059,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="259" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
@@ -30138,7 +30142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="260" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
@@ -30224,7 +30228,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="261" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
@@ -30310,7 +30314,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="262" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
@@ -30396,7 +30400,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="263" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
@@ -30482,7 +30486,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="264" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
@@ -30568,7 +30572,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="265" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>264</v>
       </c>
@@ -30654,7 +30658,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="266" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>265</v>
       </c>
@@ -30740,7 +30744,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="267" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
@@ -30823,7 +30827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="268" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
@@ -30906,7 +30910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="269" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>268</v>
       </c>
@@ -30989,7 +30993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="270" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
@@ -31075,7 +31079,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="271" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>270</v>
       </c>
@@ -31161,7 +31165,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="272" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>271</v>
       </c>
@@ -31247,7 +31251,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="273" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>272</v>
       </c>
@@ -31330,7 +31334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="274" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>273</v>
       </c>
@@ -31413,7 +31417,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="275" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>274</v>
       </c>
@@ -31499,7 +31503,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="276" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>275</v>
       </c>
@@ -31582,7 +31586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="277" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>276</v>
       </c>
@@ -31668,7 +31672,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="278" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>277</v>
       </c>
@@ -31754,7 +31758,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="279" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>278</v>
       </c>
@@ -31837,7 +31841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="280" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>279</v>
       </c>
@@ -31920,7 +31924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="281" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>280</v>
       </c>
@@ -32006,7 +32010,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="282" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>281</v>
       </c>
@@ -32089,7 +32093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="283" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>282</v>
       </c>
@@ -32172,7 +32176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="284" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>283</v>
       </c>
@@ -32255,7 +32259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="285" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>284</v>
       </c>
@@ -32341,7 +32345,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="286" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>285</v>
       </c>
@@ -32427,7 +32431,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="287" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>286</v>
       </c>
@@ -32513,7 +32517,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="288" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>287</v>
       </c>
@@ -32596,7 +32600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="289" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>288</v>
       </c>
@@ -32682,7 +32686,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="290" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>289</v>
       </c>
@@ -32765,7 +32769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="291" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>290</v>
       </c>
@@ -32851,7 +32855,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="292" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>291</v>
       </c>
@@ -32937,7 +32941,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="293" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>292</v>
       </c>
@@ -33023,7 +33027,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="294" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>293</v>
       </c>
@@ -33109,7 +33113,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="295" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>294</v>
       </c>
@@ -33195,7 +33199,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="296" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>295</v>
       </c>
@@ -33281,7 +33285,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="297" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>296</v>
       </c>
@@ -33367,7 +33371,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="298" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>297</v>
       </c>
@@ -33450,7 +33454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="299" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>298</v>
       </c>
@@ -33536,7 +33540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="300" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>299</v>
       </c>
@@ -33619,7 +33623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="301" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>300</v>
       </c>
@@ -33702,7 +33706,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="302" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>301</v>
       </c>
@@ -33788,7 +33792,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="303" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>302</v>
       </c>
@@ -33871,7 +33875,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="304" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>303</v>
       </c>
@@ -33954,7 +33958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="305" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>304</v>
       </c>
@@ -34040,7 +34044,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="306" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>305</v>
       </c>
@@ -34126,7 +34130,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="307" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>306</v>
       </c>
@@ -34212,7 +34216,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="308" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>307</v>
       </c>
@@ -34298,7 +34302,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="309" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>308</v>
       </c>
@@ -34384,7 +34388,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="310" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>309</v>
       </c>
@@ -34470,7 +34474,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="311" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>310</v>
       </c>
@@ -34556,7 +34560,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="312" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>311</v>
       </c>
@@ -34642,7 +34646,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="313" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>312</v>
       </c>
@@ -34728,7 +34732,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="314" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>313</v>
       </c>
@@ -34814,7 +34818,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="315" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>314</v>
       </c>
@@ -34897,7 +34901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="316" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>315</v>
       </c>
@@ -34983,7 +34987,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="317" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>316</v>
       </c>
@@ -35066,7 +35070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="318" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>317</v>
       </c>
@@ -35149,7 +35153,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="319" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>318</v>
       </c>
@@ -35235,7 +35239,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="320" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>319</v>
       </c>
@@ -35321,7 +35325,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="321" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>320</v>
       </c>
@@ -35404,7 +35408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="322" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>321</v>
       </c>
@@ -35490,7 +35494,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="323" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>322</v>
       </c>
@@ -35573,7 +35577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="324" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>323</v>
       </c>
@@ -35656,7 +35660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="325" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>324</v>
       </c>
@@ -35739,7 +35743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="326" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>325</v>
       </c>
@@ -35822,7 +35826,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="327" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>326</v>
       </c>
@@ -35908,7 +35912,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="328" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>327</v>
       </c>
@@ -35994,7 +35998,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="329" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>328</v>
       </c>
@@ -36080,7 +36084,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="330" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>329</v>
       </c>
@@ -36163,7 +36167,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="331" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>330</v>
       </c>
@@ -36249,7 +36253,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="332" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>331</v>
       </c>
@@ -36335,7 +36339,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="333" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>332</v>
       </c>
@@ -36421,7 +36425,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="334" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>333</v>
       </c>
@@ -36504,7 +36508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="335" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>334</v>
       </c>
@@ -36590,7 +36594,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="336" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>335</v>
       </c>
@@ -36676,7 +36680,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="337" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>336</v>
       </c>
@@ -36762,7 +36766,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="338" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>337</v>
       </c>
@@ -36845,7 +36849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="339" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>338</v>
       </c>
@@ -36931,7 +36935,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="340" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>339</v>
       </c>
@@ -37014,7 +37018,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="341" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>340</v>
       </c>
@@ -37097,7 +37101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="342" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>341</v>
       </c>
@@ -37180,7 +37184,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="343" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>342</v>
       </c>
@@ -37266,7 +37270,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="344" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>343</v>
       </c>
@@ -37349,7 +37353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="345" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>344</v>
       </c>
@@ -37432,7 +37436,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="346" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>345</v>
       </c>
@@ -37515,7 +37519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>346</v>
       </c>
@@ -37598,7 +37602,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="348" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>347</v>
       </c>
@@ -37684,7 +37688,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="349" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>348</v>
       </c>
@@ -37770,7 +37774,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="350" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>349</v>
       </c>
@@ -37856,7 +37860,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="351" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>350</v>
       </c>
@@ -37942,7 +37946,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="352" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>351</v>
       </c>
@@ -38028,7 +38032,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="353" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>352</v>
       </c>
@@ -38114,7 +38118,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="354" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>353</v>
       </c>
@@ -38197,7 +38201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="355" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>354</v>
       </c>
@@ -38280,7 +38284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="356" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>355</v>
       </c>
@@ -38366,7 +38370,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="357" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>356</v>
       </c>
@@ -38452,7 +38456,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="358" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>357</v>
       </c>
@@ -38538,7 +38542,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="359" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>358</v>
       </c>
@@ -38621,7 +38625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="360" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>359</v>
       </c>
@@ -38707,7 +38711,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="361" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>360</v>
       </c>
@@ -38793,7 +38797,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="362" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>361</v>
       </c>
@@ -38879,7 +38883,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="363" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>362</v>
       </c>
@@ -38965,7 +38969,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="364" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>363</v>
       </c>
@@ -39051,7 +39055,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="365" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>364</v>
       </c>
@@ -39137,7 +39141,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="366" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>365</v>
       </c>
@@ -39223,7 +39227,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="367" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>366</v>
       </c>
@@ -39309,7 +39313,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="368" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>432</v>
       </c>
@@ -39392,7 +39396,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="369" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>368</v>
       </c>
@@ -39478,7 +39482,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="370" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>369</v>
       </c>
@@ -39561,7 +39565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="371" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>370</v>
       </c>
@@ -39647,7 +39651,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="372" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>371</v>
       </c>
@@ -39733,7 +39737,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="373" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>372</v>
       </c>
@@ -39819,7 +39823,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="374" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>373</v>
       </c>
@@ -39902,7 +39906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="375" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>374</v>
       </c>
@@ -39988,7 +39992,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="376" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>375</v>
       </c>
@@ -40074,7 +40078,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="377" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>376</v>
       </c>
@@ -40160,7 +40164,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="378" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>377</v>
       </c>
@@ -40246,7 +40250,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="379" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>378</v>
       </c>
@@ -40332,7 +40336,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="380" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>379</v>
       </c>
@@ -40418,7 +40422,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="381" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>380</v>
       </c>
@@ -40504,7 +40508,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="382" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>381</v>
       </c>
@@ -40590,7 +40594,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="383" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>382</v>
       </c>
@@ -40673,7 +40677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="384" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>383</v>
       </c>
@@ -40759,7 +40763,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="385" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>384</v>
       </c>
@@ -40845,7 +40849,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="386" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>385</v>
       </c>
@@ -40931,7 +40935,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="387" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>386</v>
       </c>
@@ -41017,7 +41021,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="388" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>387</v>
       </c>
@@ -41103,7 +41107,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="389" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>388</v>
       </c>
@@ -41189,7 +41193,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="390" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>389</v>
       </c>
@@ -41275,7 +41279,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="391" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>390</v>
       </c>
@@ -41361,7 +41365,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="392" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>391</v>
       </c>
@@ -41447,7 +41451,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="393" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>392</v>
       </c>
@@ -41533,7 +41537,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="394" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>393</v>
       </c>
@@ -41616,7 +41620,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="395" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>394</v>
       </c>
@@ -41702,7 +41706,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="396" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>395</v>
       </c>
@@ -41788,7 +41792,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="397" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>396</v>
       </c>
@@ -41874,7 +41878,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="398" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>397</v>
       </c>
@@ -41960,7 +41964,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="399" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>398</v>
       </c>
@@ -42043,7 +42047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="400" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>399</v>
       </c>
@@ -42129,7 +42133,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="401" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>400</v>
       </c>
@@ -42215,7 +42219,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="402" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>401</v>
       </c>
@@ -42298,7 +42302,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="403" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>402</v>
       </c>
@@ -42384,7 +42388,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="404" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>403</v>
       </c>
@@ -42470,7 +42474,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="405" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>404</v>
       </c>
@@ -42556,7 +42560,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="406" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>405</v>
       </c>
@@ -42642,7 +42646,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="407" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>406</v>
       </c>
@@ -42728,7 +42732,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="408" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>407</v>
       </c>
@@ -42814,7 +42818,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="409" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>408</v>
       </c>
@@ -42897,7 +42901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="410" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>409</v>
       </c>
@@ -42983,7 +42987,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="411" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>410</v>
       </c>
@@ -43069,7 +43073,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="412" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>411</v>
       </c>
@@ -43155,7 +43159,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="413" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>412</v>
       </c>
@@ -43241,7 +43245,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="414" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>413</v>
       </c>
@@ -43327,7 +43331,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="415" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>414</v>
       </c>
@@ -43413,7 +43417,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="416" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>415</v>
       </c>
@@ -43499,7 +43503,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="417" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>416</v>
       </c>
@@ -43585,7 +43589,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="418" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>417</v>
       </c>
@@ -43671,7 +43675,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="419" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>418</v>
       </c>
@@ -43757,7 +43761,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="420" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>419</v>
       </c>
@@ -43843,7 +43847,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="421" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>420</v>
       </c>
@@ -43929,7 +43933,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="422" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>421</v>
       </c>
@@ -44015,7 +44019,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="423" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>422</v>
       </c>
@@ -44101,7 +44105,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="424" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>423</v>
       </c>
@@ -44187,7 +44191,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="425" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>424</v>
       </c>
@@ -44273,7 +44277,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="426" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>425</v>
       </c>
@@ -44356,7 +44360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="427" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>426</v>
       </c>
@@ -44442,7 +44446,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="428" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>427</v>
       </c>
@@ -44528,7 +44532,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="429" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>428</v>
       </c>
@@ -44611,7 +44615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="430" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>429</v>
       </c>
@@ -44697,7 +44701,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="431" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>430</v>
       </c>
@@ -44783,7 +44787,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="432" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>431</v>
       </c>
@@ -44869,7 +44873,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="433" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>512</v>
       </c>
@@ -44952,7 +44956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="434" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>433</v>
       </c>
@@ -45035,7 +45039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="435" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>434</v>
       </c>
@@ -45121,7 +45125,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="436" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>435</v>
       </c>
@@ -45207,7 +45211,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="437" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>436</v>
       </c>
@@ -45293,7 +45297,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="438" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>437</v>
       </c>
@@ -45379,7 +45383,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="439" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>438</v>
       </c>
@@ -45465,7 +45469,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="440" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>439</v>
       </c>
@@ -45551,7 +45555,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="441" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>440</v>
       </c>
@@ -45637,7 +45641,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="442" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>441</v>
       </c>
@@ -45723,7 +45727,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="443" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>442</v>
       </c>
@@ -45809,7 +45813,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="444" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>443</v>
       </c>
@@ -45895,7 +45899,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="445" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>444</v>
       </c>
@@ -45981,7 +45985,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="446" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>445</v>
       </c>
@@ -46064,7 +46068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="447" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>446</v>
       </c>
@@ -46147,7 +46151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="448" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>447</v>
       </c>
@@ -46233,7 +46237,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="449" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>448</v>
       </c>
@@ -46319,7 +46323,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="450" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>449</v>
       </c>
@@ -46405,7 +46409,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="451" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>450</v>
       </c>
@@ -46491,7 +46495,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="452" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>451</v>
       </c>
@@ -46574,7 +46578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="453" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>452</v>
       </c>
@@ -46660,7 +46664,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="454" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>453</v>
       </c>
@@ -46746,7 +46750,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="455" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>454</v>
       </c>
@@ -46832,7 +46836,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="456" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>455</v>
       </c>
@@ -46918,7 +46922,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="457" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>456</v>
       </c>
@@ -47004,7 +47008,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="458" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>457</v>
       </c>
@@ -47087,7 +47091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="459" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>458</v>
       </c>
@@ -47173,7 +47177,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="460" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>459</v>
       </c>
@@ -47259,7 +47263,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="461" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>460</v>
       </c>
@@ -47345,7 +47349,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="462" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>461</v>
       </c>
@@ -47428,7 +47432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="463" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>462</v>
       </c>
@@ -47511,7 +47515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="464" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>463</v>
       </c>
@@ -47594,7 +47598,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="465" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>464</v>
       </c>
@@ -47680,7 +47684,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="466" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>565</v>
       </c>
@@ -47763,7 +47767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="467" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>466</v>
       </c>
@@ -47846,7 +47850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="468" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>467</v>
       </c>
@@ -47932,7 +47936,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="469" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>468</v>
       </c>
@@ -48015,7 +48019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="470" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>861</v>
       </c>
@@ -48098,7 +48102,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="471" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>470</v>
       </c>
@@ -48181,7 +48185,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="472" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>471</v>
       </c>
@@ -48264,7 +48268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="473" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>472</v>
       </c>
@@ -48347,7 +48351,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="474" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>473</v>
       </c>
@@ -48433,7 +48437,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="475" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>474</v>
       </c>
@@ -48519,7 +48523,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="476" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>475</v>
       </c>
@@ -48605,7 +48609,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="477" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>476</v>
       </c>
@@ -48688,7 +48692,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="478" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>477</v>
       </c>
@@ -48774,7 +48778,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="479" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>478</v>
       </c>
@@ -48860,7 +48864,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="480" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>479</v>
       </c>
@@ -48943,7 +48947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="481" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>480</v>
       </c>
@@ -49029,7 +49033,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="482" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>481</v>
       </c>
@@ -49115,7 +49119,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="483" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>482</v>
       </c>
@@ -49201,7 +49205,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="484" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>483</v>
       </c>
@@ -49284,7 +49288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="485" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>469</v>
       </c>
@@ -49367,7 +49371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="486" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>485</v>
       </c>
@@ -49453,7 +49457,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="487" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>486</v>
       </c>
@@ -49536,7 +49540,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="488" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>487</v>
       </c>
@@ -49622,7 +49626,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="489" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>488</v>
       </c>
@@ -49708,7 +49712,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="490" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>489</v>
       </c>
@@ -49794,7 +49798,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="491" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>490</v>
       </c>
@@ -49877,7 +49881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="492" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>491</v>
       </c>
@@ -49963,7 +49967,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="493" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>492</v>
       </c>
@@ -50049,7 +50053,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="494" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>493</v>
       </c>
@@ -50132,7 +50136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="495" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>494</v>
       </c>
@@ -50215,7 +50219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="496" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>495</v>
       </c>
@@ -50301,7 +50305,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="497" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>496</v>
       </c>
@@ -50387,7 +50391,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="498" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>497</v>
       </c>
@@ -50473,7 +50477,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="499" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>498</v>
       </c>
@@ -50559,7 +50563,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="500" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>499</v>
       </c>
@@ -50645,7 +50649,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="501" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>500</v>
       </c>
@@ -50731,7 +50735,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="502" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>501</v>
       </c>
@@ -50814,7 +50818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="503" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>502</v>
       </c>
@@ -50900,7 +50904,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="504" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>503</v>
       </c>
@@ -50986,7 +50990,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="505" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>504</v>
       </c>
@@ -51069,7 +51073,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="506" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>505</v>
       </c>
@@ -51152,7 +51156,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="507" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>506</v>
       </c>
@@ -51235,7 +51239,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="508" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>507</v>
       </c>
@@ -51321,7 +51325,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="509" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>508</v>
       </c>
@@ -51404,7 +51408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="510" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>367</v>
       </c>
@@ -51490,7 +51494,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="511" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>465</v>
       </c>
@@ -51576,7 +51580,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="512" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>511</v>
       </c>
@@ -51662,7 +51666,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="513" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>484</v>
       </c>
@@ -51748,7 +51752,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="514" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>513</v>
       </c>
@@ -51834,7 +51838,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="515" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>514</v>
       </c>
@@ -51917,7 +51921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="516" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>515</v>
       </c>
@@ -52000,7 +52004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="517" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>516</v>
       </c>
@@ -52086,7 +52090,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="518" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>517</v>
       </c>
@@ -52172,7 +52176,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="519" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>518</v>
       </c>
@@ -52255,7 +52259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="520" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>519</v>
       </c>
@@ -52341,7 +52345,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="521" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>520</v>
       </c>
@@ -52424,7 +52428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="522" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>521</v>
       </c>
@@ -52507,7 +52511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="523" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>522</v>
       </c>
@@ -52593,7 +52597,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="524" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>523</v>
       </c>
@@ -52679,7 +52683,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="525" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>524</v>
       </c>
@@ -52762,7 +52766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="526" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>525</v>
       </c>
@@ -52848,7 +52852,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="527" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>526</v>
       </c>
@@ -52934,7 +52938,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="528" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>527</v>
       </c>
@@ -53017,7 +53021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="529" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>528</v>
       </c>
@@ -53100,7 +53104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="530" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>529</v>
       </c>
@@ -53186,7 +53190,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="531" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>530</v>
       </c>
@@ -53272,7 +53276,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="532" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>531</v>
       </c>
@@ -53358,7 +53362,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="533" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>532</v>
       </c>
@@ -53441,7 +53445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="534" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>533</v>
       </c>
@@ -53527,7 +53531,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="535" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>534</v>
       </c>
@@ -53610,7 +53614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="536" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>535</v>
       </c>
@@ -53693,7 +53697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="537" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>536</v>
       </c>
@@ -53779,7 +53783,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="538" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>537</v>
       </c>
@@ -53865,7 +53869,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="539" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>538</v>
       </c>
@@ -53951,7 +53955,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="540" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>539</v>
       </c>
@@ -54037,7 +54041,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="541" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>540</v>
       </c>
@@ -54123,7 +54127,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="542" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>541</v>
       </c>
@@ -54209,7 +54213,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="543" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>542</v>
       </c>
@@ -54295,7 +54299,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="544" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>543</v>
       </c>
@@ -54381,7 +54385,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="545" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>544</v>
       </c>
@@ -54467,7 +54471,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="546" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>545</v>
       </c>
@@ -54553,7 +54557,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="547" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>546</v>
       </c>
@@ -54639,7 +54643,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="548" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>547</v>
       </c>
@@ -54722,7 +54726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="549" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>548</v>
       </c>
@@ -54808,7 +54812,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="550" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>549</v>
       </c>
@@ -54891,7 +54895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="551" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>550</v>
       </c>
@@ -54977,7 +54981,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="552" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>551</v>
       </c>
@@ -55063,7 +55067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="553" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>552</v>
       </c>
@@ -55149,7 +55153,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="554" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>553</v>
       </c>
@@ -55232,7 +55236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="555" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>554</v>
       </c>
@@ -55315,7 +55319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="556" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>555</v>
       </c>
@@ -55401,7 +55405,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="557" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>556</v>
       </c>
@@ -55487,7 +55491,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="558" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>557</v>
       </c>
@@ -55570,7 +55574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="559" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>558</v>
       </c>
@@ -55656,7 +55660,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="560" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>559</v>
       </c>
@@ -55742,7 +55746,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="561" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>560</v>
       </c>
@@ -55825,7 +55829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="562" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>561</v>
       </c>
@@ -55911,7 +55915,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="563" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>562</v>
       </c>
@@ -55997,7 +56001,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="564" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>563</v>
       </c>
@@ -56083,7 +56087,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="565" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>564</v>
       </c>
@@ -56169,7 +56173,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="566" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>509</v>
       </c>
@@ -56255,7 +56259,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="567" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>566</v>
       </c>
@@ -56341,7 +56345,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="568" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>567</v>
       </c>
@@ -56424,7 +56428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="569" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>568</v>
       </c>
@@ -56507,7 +56511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="570" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>569</v>
       </c>
@@ -56593,7 +56597,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="571" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>570</v>
       </c>
@@ -56679,7 +56683,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="572" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>571</v>
       </c>
@@ -56765,7 +56769,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="573" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>572</v>
       </c>
@@ -56851,7 +56855,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="574" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>573</v>
       </c>
@@ -56934,7 +56938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="575" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>574</v>
       </c>
@@ -57017,7 +57021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="576" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>575</v>
       </c>
@@ -57100,7 +57104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="577" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>576</v>
       </c>
@@ -57183,7 +57187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="578" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>577</v>
       </c>
@@ -57266,7 +57270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="579" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>578</v>
       </c>
@@ -57349,7 +57353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="580" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>579</v>
       </c>
@@ -57432,7 +57436,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="581" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>580</v>
       </c>
@@ -57518,7 +57522,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="582" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>581</v>
       </c>
@@ -57604,7 +57608,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="583" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>582</v>
       </c>
@@ -57687,7 +57691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="584" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>583</v>
       </c>
@@ -57770,7 +57774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="585" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>584</v>
       </c>
@@ -57856,7 +57860,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="586" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>585</v>
       </c>
@@ -57939,7 +57943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="587" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>586</v>
       </c>
@@ -58022,7 +58026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="588" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>587</v>
       </c>
@@ -58105,7 +58109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="589" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>588</v>
       </c>
@@ -58188,7 +58192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="590" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>589</v>
       </c>
@@ -58274,7 +58278,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="591" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>590</v>
       </c>
@@ -58357,7 +58361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="592" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>591</v>
       </c>
@@ -58443,7 +58447,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="593" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>592</v>
       </c>
@@ -58529,7 +58533,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="594" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>593</v>
       </c>
@@ -58615,7 +58619,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="595" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>594</v>
       </c>
@@ -58698,7 +58702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="596" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>595</v>
       </c>
@@ -58784,7 +58788,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="597" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>596</v>
       </c>
@@ -58870,7 +58874,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="598" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>597</v>
       </c>
@@ -58953,7 +58957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="599" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>598</v>
       </c>
@@ -59039,7 +59043,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="600" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>599</v>
       </c>
@@ -59125,7 +59129,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="601" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>600</v>
       </c>
@@ -59211,7 +59215,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="602" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>601</v>
       </c>
@@ -59297,7 +59301,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="603" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>602</v>
       </c>
@@ -59383,7 +59387,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="604" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>603</v>
       </c>
@@ -59469,7 +59473,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="605" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>604</v>
       </c>
@@ -59555,7 +59559,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="606" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>605</v>
       </c>
@@ -59641,7 +59645,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="607" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>606</v>
       </c>
@@ -59727,7 +59731,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="608" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>607</v>
       </c>
@@ -59813,7 +59817,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="609" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>608</v>
       </c>
@@ -59896,7 +59900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="610" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>609</v>
       </c>
@@ -59982,7 +59986,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="611" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>610</v>
       </c>
@@ -60068,7 +60072,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="612" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>611</v>
       </c>
@@ -60154,7 +60158,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="613" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>612</v>
       </c>
@@ -60240,7 +60244,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="614" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>613</v>
       </c>
@@ -60326,7 +60330,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="615" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>614</v>
       </c>
@@ -60412,7 +60416,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="616" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>615</v>
       </c>
@@ -60498,7 +60502,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="617" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>616</v>
       </c>
@@ -60581,7 +60585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="618" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>617</v>
       </c>
@@ -60667,7 +60671,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="619" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>618</v>
       </c>
@@ -60750,7 +60754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="620" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>619</v>
       </c>
@@ -60836,7 +60840,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="621" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>620</v>
       </c>
@@ -60922,7 +60926,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="622" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>621</v>
       </c>
@@ -61005,7 +61009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="623" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>622</v>
       </c>
@@ -61091,7 +61095,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="624" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>623</v>
       </c>
@@ -61177,7 +61181,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="625" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>624</v>
       </c>
@@ -61260,7 +61264,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="626" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>625</v>
       </c>
@@ -61343,7 +61347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="627" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>626</v>
       </c>
@@ -61429,7 +61433,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="628" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>627</v>
       </c>
@@ -61515,7 +61519,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="629" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>628</v>
       </c>
@@ -61601,7 +61605,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="630" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>629</v>
       </c>
@@ -61687,7 +61691,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="631" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>630</v>
       </c>
@@ -61773,7 +61777,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="632" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>631</v>
       </c>
@@ -61859,7 +61863,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="633" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>510</v>
       </c>
@@ -61942,7 +61946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="634" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>633</v>
       </c>
@@ -62028,7 +62032,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="635" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>634</v>
       </c>
@@ -62114,7 +62118,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="636" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>635</v>
       </c>
@@ -62200,7 +62204,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="637" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>636</v>
       </c>
@@ -62286,7 +62290,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="638" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>637</v>
       </c>
@@ -62369,7 +62373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="639" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>638</v>
       </c>
@@ -62455,7 +62459,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="640" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>639</v>
       </c>
@@ -62541,7 +62545,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="641" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>640</v>
       </c>
@@ -62627,7 +62631,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="642" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>641</v>
       </c>
@@ -62710,7 +62714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="643" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>642</v>
       </c>
@@ -62793,7 +62797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="644" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>643</v>
       </c>
@@ -62879,7 +62883,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="645" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>644</v>
       </c>
@@ -62962,7 +62966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="646" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>645</v>
       </c>
@@ -63048,7 +63052,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="647" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>646</v>
       </c>
@@ -63131,7 +63135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="648" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>647</v>
       </c>
@@ -63214,7 +63218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="649" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>648</v>
       </c>
@@ -63300,7 +63304,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="650" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>649</v>
       </c>
@@ -63386,7 +63390,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="651" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>650</v>
       </c>
@@ -63469,7 +63473,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="652" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>651</v>
       </c>
@@ -63555,7 +63559,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="653" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>652</v>
       </c>
@@ -63638,7 +63642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="654" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>653</v>
       </c>
@@ -63721,7 +63725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="655" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>654</v>
       </c>
@@ -63807,7 +63811,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="656" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>655</v>
       </c>
@@ -63890,7 +63894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="657" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>656</v>
       </c>
@@ -63976,7 +63980,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="658" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>657</v>
       </c>
@@ -64062,7 +64066,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="659" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>658</v>
       </c>
@@ -64148,7 +64152,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="660" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>659</v>
       </c>
@@ -64231,7 +64235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="661" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>660</v>
       </c>
@@ -64317,7 +64321,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="662" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>661</v>
       </c>
@@ -64400,7 +64404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="663" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>662</v>
       </c>
@@ -64483,7 +64487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="664" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>663</v>
       </c>
@@ -64569,7 +64573,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="665" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>664</v>
       </c>
@@ -64655,7 +64659,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="666" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>665</v>
       </c>
@@ -64738,7 +64742,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="667" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>666</v>
       </c>
@@ -64824,7 +64828,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="668" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>667</v>
       </c>
@@ -64907,7 +64911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="669" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>668</v>
       </c>
@@ -64990,7 +64994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="670" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>669</v>
       </c>
@@ -65076,7 +65080,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="671" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>670</v>
       </c>
@@ -65162,7 +65166,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="672" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>671</v>
       </c>
@@ -65248,7 +65252,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="673" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>672</v>
       </c>
@@ -65331,7 +65335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="674" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>673</v>
       </c>
@@ -65417,7 +65421,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="675" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>674</v>
       </c>
@@ -65500,7 +65504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="676" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>675</v>
       </c>
@@ -65586,7 +65590,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="677" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>677</v>
       </c>
@@ -65669,7 +65673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="678" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>678</v>
       </c>
@@ -65755,7 +65759,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="679" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>632</v>
       </c>
@@ -65838,7 +65842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="680" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>680</v>
       </c>
@@ -65921,7 +65925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="681" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>681</v>
       </c>
@@ -66007,7 +66011,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="682" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>682</v>
       </c>
@@ -66090,7 +66094,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="683" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>683</v>
       </c>
@@ -66173,7 +66177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="684" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>684</v>
       </c>
@@ -66256,7 +66260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="685" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>685</v>
       </c>
@@ -66339,7 +66343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="686" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>686</v>
       </c>
@@ -66425,7 +66429,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="687" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>687</v>
       </c>
@@ -66508,7 +66512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="688" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>688</v>
       </c>
@@ -66594,7 +66598,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="689" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>689</v>
       </c>
@@ -66680,7 +66684,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="690" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>690</v>
       </c>
@@ -66766,7 +66770,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="691" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>691</v>
       </c>
@@ -66849,7 +66853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="692" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>692</v>
       </c>
@@ -66932,7 +66936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="693" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>693</v>
       </c>
@@ -67015,7 +67019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="694" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>694</v>
       </c>
@@ -67101,7 +67105,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="695" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>695</v>
       </c>
@@ -67187,7 +67191,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="696" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>696</v>
       </c>
@@ -67270,7 +67274,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="697" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>697</v>
       </c>
@@ -67356,7 +67360,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="698" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>698</v>
       </c>
@@ -67442,7 +67446,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="699" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>699</v>
       </c>
@@ -67528,7 +67532,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="700" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>700</v>
       </c>
@@ -67614,7 +67618,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="701" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>701</v>
       </c>
@@ -67700,7 +67704,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="702" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>702</v>
       </c>
@@ -67786,7 +67790,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="703" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>703</v>
       </c>
@@ -67872,7 +67876,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="704" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>704</v>
       </c>
@@ -67958,7 +67962,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="705" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>705</v>
       </c>
@@ -68041,7 +68045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="706" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>706</v>
       </c>
@@ -68127,7 +68131,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="707" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>707</v>
       </c>
@@ -68213,7 +68217,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="708" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>708</v>
       </c>
@@ -68299,7 +68303,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="709" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>709</v>
       </c>
@@ -68385,7 +68389,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="710" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>710</v>
       </c>
@@ -68471,7 +68475,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="711" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>711</v>
       </c>
@@ -68554,7 +68558,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="712" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>712</v>
       </c>
@@ -68640,7 +68644,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="713" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>713</v>
       </c>
@@ -68723,7 +68727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="714" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>714</v>
       </c>
@@ -68809,7 +68813,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="715" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>715</v>
       </c>
@@ -68895,7 +68899,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="716" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>716</v>
       </c>
@@ -68978,7 +68982,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="717" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>717</v>
       </c>
@@ -69061,7 +69065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="718" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>718</v>
       </c>
@@ -69147,7 +69151,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="719" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>719</v>
       </c>
@@ -69233,7 +69237,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="720" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>720</v>
       </c>
@@ -69316,7 +69320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="721" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>721</v>
       </c>
@@ -69402,7 +69406,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="722" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>722</v>
       </c>
@@ -69485,7 +69489,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="723" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>723</v>
       </c>
@@ -69568,7 +69572,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="724" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>724</v>
       </c>
@@ -69651,7 +69655,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="725" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>725</v>
       </c>
@@ -69734,7 +69738,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="726" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>726</v>
       </c>
@@ -69817,7 +69821,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="727" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>727</v>
       </c>
@@ -69903,7 +69907,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="728" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>728</v>
       </c>
@@ -69986,7 +69990,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="729" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>729</v>
       </c>
@@ -70069,7 +70073,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="730" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>730</v>
       </c>
@@ -70152,7 +70156,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="731" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>731</v>
       </c>
@@ -70235,7 +70239,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="732" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>732</v>
       </c>
@@ -70318,7 +70322,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="733" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>733</v>
       </c>
@@ -70401,7 +70405,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="734" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>734</v>
       </c>
@@ -70484,7 +70488,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="735" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>735</v>
       </c>
@@ -70567,7 +70571,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="736" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>736</v>
       </c>
@@ -70650,7 +70654,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="737" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>737</v>
       </c>
@@ -70736,7 +70740,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="738" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>738</v>
       </c>
@@ -70819,7 +70823,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="739" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>739</v>
       </c>
@@ -70905,7 +70909,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="740" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>740</v>
       </c>
@@ -70988,7 +70992,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="741" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>741</v>
       </c>
@@ -71071,7 +71075,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="742" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>742</v>
       </c>
@@ -71154,7 +71158,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="743" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>743</v>
       </c>
@@ -71240,7 +71244,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="744" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>744</v>
       </c>
@@ -71323,7 +71327,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="745" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>745</v>
       </c>
@@ -71406,7 +71410,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="746" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>746</v>
       </c>
@@ -71492,7 +71496,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="747" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>747</v>
       </c>
@@ -71578,7 +71582,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="748" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>748</v>
       </c>
@@ -71661,7 +71665,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="749" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>749</v>
       </c>
@@ -71744,7 +71748,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="750" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>750</v>
       </c>
@@ -71827,7 +71831,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="751" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>751</v>
       </c>
@@ -71910,7 +71914,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="752" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>752</v>
       </c>
@@ -71993,7 +71997,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="753" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>754</v>
       </c>
@@ -72079,7 +72083,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="754" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>754</v>
       </c>
@@ -72165,7 +72169,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="755" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>755</v>
       </c>
@@ -72248,7 +72252,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="756" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>756</v>
       </c>
@@ -72331,7 +72335,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="757" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>757</v>
       </c>
@@ -72414,7 +72418,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="758" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>758</v>
       </c>
@@ -72497,7 +72501,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="759" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>759</v>
       </c>
@@ -72580,7 +72584,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="760" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>760</v>
       </c>
@@ -72663,7 +72667,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="761" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>761</v>
       </c>
@@ -72746,7 +72750,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="762" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>762</v>
       </c>
@@ -72829,7 +72833,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="763" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>763</v>
       </c>
@@ -72912,7 +72916,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="764" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>764</v>
       </c>
@@ -72995,7 +72999,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="765" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>765</v>
       </c>
@@ -73078,7 +73082,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="766" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>766</v>
       </c>
@@ -73161,7 +73165,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="767" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>767</v>
       </c>
@@ -73244,7 +73248,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="768" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>768</v>
       </c>
@@ -73327,7 +73331,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="769" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>769</v>
       </c>
@@ -73410,7 +73414,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="770" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>770</v>
       </c>
@@ -73493,7 +73497,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="771" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>771</v>
       </c>
@@ -73576,7 +73580,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="772" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>772</v>
       </c>
@@ -73659,7 +73663,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="773" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>773</v>
       </c>
@@ -73742,7 +73746,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="774" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>774</v>
       </c>
@@ -73825,7 +73829,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="775" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>775</v>
       </c>
@@ -73908,7 +73912,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="776" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>776</v>
       </c>
@@ -73991,7 +73995,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="777" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>777</v>
       </c>
@@ -74077,7 +74081,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="778" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>778</v>
       </c>
@@ -74163,7 +74167,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="779" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>779</v>
       </c>
@@ -74246,7 +74250,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="780" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>780</v>
       </c>
@@ -74329,7 +74333,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="781" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>781</v>
       </c>
@@ -74412,7 +74416,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="782" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>782</v>
       </c>
@@ -74498,7 +74502,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="783" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>783</v>
       </c>
@@ -74581,7 +74585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="784" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>784</v>
       </c>
@@ -74664,7 +74668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="785" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>785</v>
       </c>
@@ -74747,7 +74751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="786" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>786</v>
       </c>
@@ -74830,7 +74834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="787" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>787</v>
       </c>
@@ -74916,7 +74920,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="788" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>788</v>
       </c>
@@ -74999,7 +75003,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="789" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>790</v>
       </c>
@@ -75085,7 +75089,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="790" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>791</v>
       </c>
@@ -75168,7 +75172,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="791" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>792</v>
       </c>
@@ -75251,7 +75255,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="792" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>793</v>
       </c>
@@ -75334,7 +75338,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="793" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>794</v>
       </c>
@@ -75417,7 +75421,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="794" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>795</v>
       </c>
@@ -75500,7 +75504,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="795" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>796</v>
       </c>
@@ -75586,7 +75590,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="796" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>797</v>
       </c>
@@ -75669,7 +75673,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="797" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>798</v>
       </c>
@@ -75752,7 +75756,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="798" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>799</v>
       </c>
@@ -75835,7 +75839,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="799" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>800</v>
       </c>
@@ -75918,7 +75922,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="800" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>801</v>
       </c>
@@ -76001,7 +76005,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="801" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>802</v>
       </c>
@@ -76084,7 +76088,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="802" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>803</v>
       </c>
@@ -76167,7 +76171,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="803" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>804</v>
       </c>
@@ -76250,7 +76254,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="804" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>805</v>
       </c>
@@ -76333,7 +76337,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="805" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>806</v>
       </c>
@@ -76416,7 +76420,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="806" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>807</v>
       </c>
@@ -76499,7 +76503,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="807" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>808</v>
       </c>
@@ -76582,7 +76586,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="808" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>809</v>
       </c>
@@ -76665,7 +76669,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="809" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>810</v>
       </c>
@@ -76748,7 +76752,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="810" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>230</v>
       </c>
@@ -76831,7 +76835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="811" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>812</v>
       </c>
@@ -76914,7 +76918,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="812" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>813</v>
       </c>
@@ -76997,7 +77001,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="813" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>814</v>
       </c>
@@ -77080,7 +77084,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="814" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>815</v>
       </c>
@@ -77163,7 +77167,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="815" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>816</v>
       </c>
@@ -77246,7 +77250,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="816" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>817</v>
       </c>
@@ -77329,7 +77333,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="817" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>817</v>
       </c>
@@ -77415,7 +77419,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="818" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>819</v>
       </c>
@@ -77498,7 +77502,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="819" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>820</v>
       </c>
@@ -77581,7 +77585,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="820" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>679</v>
       </c>
@@ -77664,7 +77668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="821" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>822</v>
       </c>
@@ -77747,7 +77751,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="822" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>823</v>
       </c>
@@ -77830,7 +77834,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="823" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>824</v>
       </c>
@@ -77913,7 +77917,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="824" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>825</v>
       </c>
@@ -77996,7 +78000,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="825" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>826</v>
       </c>
@@ -78079,7 +78083,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="826" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>827</v>
       </c>
@@ -78162,7 +78166,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="827" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>828</v>
       </c>
@@ -78245,7 +78249,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="828" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>829</v>
       </c>
@@ -78328,7 +78332,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="829" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>830</v>
       </c>
@@ -78411,7 +78415,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="830" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>831</v>
       </c>
@@ -78497,7 +78501,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="831" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>832</v>
       </c>
@@ -78580,7 +78584,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="832" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>833</v>
       </c>
@@ -78663,7 +78667,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="833" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>834</v>
       </c>
@@ -78746,7 +78750,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="834" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>835</v>
       </c>
@@ -78829,7 +78833,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="835" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>836</v>
       </c>
@@ -78912,7 +78916,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="836" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>837</v>
       </c>
@@ -78995,7 +78999,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="837" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>838</v>
       </c>
@@ -79078,7 +79082,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="838" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>839</v>
       </c>
@@ -79161,7 +79165,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="839" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>821</v>
       </c>
@@ -79247,7 +79251,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="840" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>841</v>
       </c>
@@ -79330,7 +79334,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="841" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>842</v>
       </c>
@@ -79416,7 +79420,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="842" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>843</v>
       </c>
@@ -79499,7 +79503,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="843" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>844</v>
       </c>
@@ -79582,7 +79586,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="844" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>845</v>
       </c>
@@ -79665,7 +79669,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="845" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>846</v>
       </c>
@@ -79748,7 +79752,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="846" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>847</v>
       </c>
@@ -79831,7 +79835,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="847" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>848</v>
       </c>
@@ -79914,7 +79918,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="848" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>849</v>
       </c>
@@ -79997,7 +80001,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="849" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>850</v>
       </c>
@@ -80080,7 +80084,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="850" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>851</v>
       </c>
@@ -80163,7 +80167,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="851" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>852</v>
       </c>
@@ -80246,7 +80250,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="852" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>853</v>
       </c>
@@ -80329,7 +80333,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="853" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>854</v>
       </c>
@@ -80412,7 +80416,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="854" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>855</v>
       </c>
@@ -80495,7 +80499,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="855" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>856</v>
       </c>
@@ -80578,7 +80582,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="856" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>857</v>
       </c>
@@ -80661,7 +80665,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="857" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>858</v>
       </c>
@@ -80738,7 +80742,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="858" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>859</v>
       </c>
@@ -80821,7 +80825,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="859" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>860</v>
       </c>
@@ -80987,7 +80991,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="861" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>862</v>
       </c>
@@ -81070,7 +81074,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="862" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>863</v>
       </c>
@@ -81153,7 +81157,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="863" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>864</v>
       </c>
@@ -81236,7 +81240,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="864" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>865</v>
       </c>
@@ -81319,7 +81323,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="865" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>866</v>
       </c>
@@ -81402,7 +81406,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="866" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>867</v>
       </c>
@@ -81485,7 +81489,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="867" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>868</v>
       </c>
@@ -81568,7 +81572,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="868" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>869</v>
       </c>
@@ -81648,7 +81652,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="869" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>870</v>
       </c>
@@ -81735,12 +81739,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AB869" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="BBNdaw22"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A231:AB810">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A860:AB860">
       <sortCondition ref="B1:B869"/>
     </sortState>
   </autoFilter>
